--- a/biology/Zoologie/Chaca_bankanensis/Chaca_bankanensis.xlsx
+++ b/biology/Zoologie/Chaca_bankanensis/Chaca_bankanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaca bankanensis, communément appelé Silure-crapaud et Silure à grande bouche, est une espèce de poisson-chat d'eau douce de la famille des Chacidae originaire de la région du Sundaland. Ce poisson peut être trouvé sur le marché de l'aquariophilie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson possède une tête assez large et est de couleur brun-orangé[2]. Sa taille maximale est de 20 cm. Il possède également une courte colonne vertébrale dorsale pouvant infliger des blessures[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson possède une tête assez large et est de couleur brun-orangé. Sa taille maximale est de 20 cm. Il possède également une courte colonne vertébrale dorsale pouvant infliger des blessures.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Réparation et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de l'ensemble biogéographique du Sundaland[4], et plus particulièrement de Brunei, d'Indonésie, de Malaisie et de Thaïlande, ce poisson se trouve dans des eaux marécageuses et tourbeuses et vit généralement immobile au fond de ces d'eaux, près des débris de végétaux et du sol[3],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de l'ensemble biogéographique du Sundaland, et plus particulièrement de Brunei, d'Indonésie, de Malaisie et de Thaïlande, ce poisson se trouve dans des eaux marécageuses et tourbeuses et vit généralement immobile au fond de ces d'eaux, près des débris de végétaux et du sol,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se nourrit de petits poissons et de crevettes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se nourrit de petits poissons et de crevettes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 1982, Chaca bankanensis était considéré comme un synonyme de Chaca chaca[7]. Ce poisson est également connu sous les noms « silure-crapaud » et « silure à grande bouche »[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1982, Chaca bankanensis était considéré comme un synonyme de Chaca chaca. Ce poisson est également connu sous les noms « silure-crapaud » et « silure à grande bouche ».
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Statut et conservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est catégorisée en « préoccupation mineure » par l'UICN[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est catégorisée en « préoccupation mineure » par l'UICN.
 </t>
         </is>
       </c>
